--- a/biology/Botanique/Promenade_de_l'allée_du_Séminaire_-_Jean-Jacques-Olier/Promenade_de_l'allée_du_Séminaire_-_Jean-Jacques-Olier.xlsx
+++ b/biology/Botanique/Promenade_de_l'allée_du_Séminaire_-_Jean-Jacques-Olier/Promenade_de_l'allée_du_Séminaire_-_Jean-Jacques-Olier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Promenade_de_l%27all%C3%A9e_du_S%C3%A9minaire_-_Jean-Jacques-Olier</t>
+          <t>Promenade_de_l'allée_du_Séminaire_-_Jean-Jacques-Olier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La promenade de l'allée du Séminaire - Jean-Jacques-Olier est un espace vert du 6e arrondissement de Paris, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Promenade_de_l%27all%C3%A9e_du_S%C3%A9minaire_-_Jean-Jacques-Olier</t>
+          <t>Promenade_de_l'allée_du_Séminaire_-_Jean-Jacques-Olier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La promenade est située entre la rue de Vaugirard (vers le no 56) et la place Saint-Sulpice et longe la rue Bonaparte[1].
-Elle est ouverte 24 heures sur 24[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La promenade est située entre la rue de Vaugirard (vers le no 56) et la place Saint-Sulpice et longe la rue Bonaparte.
+Elle est ouverte 24 heures sur 24.
 Elle est desservie par la ligne   à la station Saint-Sulpice.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Promenade_de_l%27all%C3%A9e_du_S%C3%A9minaire_-_Jean-Jacques-Olier</t>
+          <t>Promenade_de_l'allée_du_Séminaire_-_Jean-Jacques-Olier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom rend hommage au prêtre Jean-Jacques Olier (1608-1657).
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Promenade_de_l%27all%C3%A9e_du_S%C3%A9minaire_-_Jean-Jacques-Olier</t>
+          <t>Promenade_de_l'allée_du_Séminaire_-_Jean-Jacques-Olier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au niveau de la promenade était autrefois installée la Communauté des Filles de l'instruction chrétienne[1].
-La promenade est inaugurée en 1936[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au niveau de la promenade était autrefois installée la Communauté des Filles de l'instruction chrétienne.
+La promenade est inaugurée en 1936.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Promenade_de_l%27all%C3%A9e_du_S%C3%A9minaire_-_Jean-Jacques-Olier</t>
+          <t>Promenade_de_l'allée_du_Séminaire_-_Jean-Jacques-Olier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La promenade est en partie surélevée. Elle comporte une fontaine (fontaine de la Paix), encadrée par des marronniers[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La promenade est en partie surélevée. Elle comporte une fontaine (fontaine de la Paix), encadrée par des marronniers.
 Au sud de la promenade se trouve un espace mémoriel pour les morts de plusieurs conflits militaires ayant impliqué la France. Quatre plaques sont apposées contre un mur : 
 En mémoire de la Première Guerre mondiale. Texte de la plaque : « De 1914 à 1919, dans les anciens bâtiments du séminaire de Saint-Sulpice, le Secours de guerre abrita des milliers de réfugiés et soldats permissionnaires français et belges ».
 En mémoire de la Seconde Guerre mondiale. Texte de la plaque : « Aux citoyens du VIe arrondissement tombés devant les pelotons d'exécution sur les barricades et sur les champs de bataille durant la lutte contre l'Allemagne nazie [...]. Que le Souvenir de leur sacrifice soit uni dans nos mémoires à celui des Glorieux Aînés de la Guerre 1914-1918 ».
